--- a/TCS.xlsx
+++ b/TCS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\000_SHARED\002_Software_Release\006_ITS\ITS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\ITS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F2C6BF-E753-4C2C-A658-AC6E52FFA6E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D4680E6-8DF8-41FB-A0B6-3E47A21C5D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="195">
   <si>
     <t>修改点</t>
     <phoneticPr fontId="1"/>
@@ -1237,6 +1237,153 @@
   </si>
   <si>
     <t>第二次scan的时候可以在中间圆盘处正常显示扫描的图像</t>
+  </si>
+  <si>
+    <t>merge模块修改</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>merge_bugfix_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>rec</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ipe中修改了merge的distance，不重新打开该recipe直接使用，distance参数是否生效</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1 正常开机并选择一个带merge的recipe进行测试
+2 修改recipe中distance,再进行测试
+（最好前后两次的distance差异比较大，一个是500，一个是10）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>merge_bugfix_2</t>
+  </si>
+  <si>
+    <t>两次检查，第一次有merge数据生成
+第二次没有merge数据</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>merge_bugfix_3</t>
+  </si>
+  <si>
+    <t>选中一个recipe之后，带merge检查一遍，在edit中查看另外一个recipe,不带merge，但是不选择，检查一次</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>两次结果都带merge，结果与distance参数匹配</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>merge_bugfix_4</t>
+  </si>
+  <si>
+    <t>选中一个recipe之后，带merge检查一遍，在edit中查看另外一个recipe,带merge，distance参数不同，但是不选择，检查一次</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>merge_bugfix_5</t>
+  </si>
+  <si>
+    <t>前后两次都有Merge数据，但是merge结果不同，要与distance相匹配</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>选中一个recipe之后，带merge功能检查；
+再重新选择一个recipe，不带merge功能检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>merge与非merge recipe转换检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用带merge的recipe检查，检查还带merge的recipe后，再检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用带merge的recipe检查，检查还带merge，但distance不同的recipe后，再检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用带merge的recipe检查，修改成不带merge保存后检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一次merge，
+第二次没有merge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>merge_bugfix_6</t>
+  </si>
+  <si>
+    <r>
+      <t>使用不</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>带merge的recipe检查，修改成带Merge的保存后检查</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一次不带merge
+第二次带merge</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>merge_bugfix_7</t>
+  </si>
+  <si>
+    <t>带merge，aging检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>结果生成以时间为文件夹的aging的缺陷文档
+结果生成以时间为文件夹的aging的map文件</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>带merge，aging检查，修改merge的distance参数，保存后直接检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一次merge与第二次merge，merge数据结果不同，与distance相匹配</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>merge_bugfix_8</t>
+  </si>
+  <si>
+    <t>merge_bugfix_9</t>
+  </si>
+  <si>
+    <t>带merge，aging检查，换不带merge的recipe检查</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第一次有merge，第二次没有merge</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1614,10 +1761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68BE7F8C-74A0-4FF5-9FC0-E335D6224AB4}">
-  <dimension ref="B1:F56"/>
+  <dimension ref="B1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2322,6 +2469,120 @@
         <v>163</v>
       </c>
     </row>
+    <row r="57" spans="2:6" ht="51">
+      <c r="B57" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" ht="34.5">
+      <c r="C58" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" ht="34.5">
+      <c r="C59" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" ht="34.5">
+      <c r="C60" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" ht="34.5">
+      <c r="C61" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" ht="34.5">
+      <c r="C62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" ht="34.5">
+      <c r="C63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6">
+      <c r="C64" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6">
+      <c r="C65" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
